--- a/kito/ex-materials/test-report0501.xlsx
+++ b/kito/ex-materials/test-report0501.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E10C71-C384-415D-8F07-802728310DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F4A15B-DD44-4112-A394-32309B957245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -112,6 +112,26 @@
   </si>
   <si>
     <t>Nguyễn Việt Anh</t>
+  </si>
+  <si>
+    <t>miscalculate "fee based on time". 
+Fee based on 31 - 60mins should be 200 yen.</t>
+  </si>
+  <si>
+    <t>miscalculate "fee based on time". 
+Fee based on 61 - 120 mins should be 300 yen.</t>
+  </si>
+  <si>
+    <t>miscalculate "fee based on time". 
+longer than or equal to 61 mins:  increase 100 yen per 60 mins</t>
+  </si>
+  <si>
+    <t>miscalculate "discount". 
+2000 yen or more purchases at partner
+shops, discount 200 yen.</t>
+  </si>
+  <si>
+    <t>ERROR</t>
   </si>
 </sst>
 </file>
@@ -268,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -339,6 +359,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -951,160 +974,264 @@
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="9">
+        <v>59</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>200</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>200</v>
+      </c>
       <c r="G12" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Nguyễn Việt Anh</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="41.25" customHeight="1">
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="9">
+        <v>60</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>200</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>200</v>
+      </c>
       <c r="G13" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>Nguyễn Việt Anh</v>
-      </c>
-      <c r="I13" s="1"/>
+        <f t="shared" ref="H13:H20" si="1">G$2</f>
+        <v>Nguyễn Việt Anh</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="41.25" customHeight="1">
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="9">
+        <v>61</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>300</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>300</v>
+      </c>
       <c r="G14" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>Nguyễn Việt Anh</v>
-      </c>
-      <c r="I14" s="1"/>
+        <f t="shared" si="1"/>
+        <v>Nguyễn Việt Anh</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="41.25" customHeight="1">
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="9">
+        <v>120</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>300</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>300</v>
+      </c>
       <c r="G15" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>Nguyễn Việt Anh</v>
-      </c>
-      <c r="I15" s="1"/>
+        <f t="shared" si="1"/>
+        <v>Nguyễn Việt Anh</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="41.25" customHeight="1">
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="9">
+        <v>121</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>400</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>400</v>
+      </c>
       <c r="G16" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>Nguyễn Việt Anh</v>
-      </c>
-      <c r="I16" s="1"/>
+        <f t="shared" si="1"/>
+        <v>Nguyễn Việt Anh</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="41.25" customHeight="1">
       <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="9">
+        <v>59</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D17" s="9">
+        <v>200</v>
+      </c>
+      <c r="E17" s="9">
+        <v>200</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
       <c r="G17" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>Nguyễn Việt Anh</v>
-      </c>
-      <c r="I17" s="1"/>
+        <f t="shared" si="1"/>
+        <v>Nguyễn Việt Anh</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="41.25" customHeight="1">
       <c r="A18" s="1">
         <v>11</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="9">
+        <v>121</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="9">
+        <v>400</v>
+      </c>
+      <c r="E18" s="9">
+        <v>200</v>
+      </c>
+      <c r="F18" s="9">
+        <v>200</v>
+      </c>
       <c r="G18" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>Nguyễn Việt Anh</v>
-      </c>
-      <c r="I18" s="1"/>
+        <f t="shared" si="1"/>
+        <v>Nguyễn Việt Anh</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="41.25" customHeight="1">
       <c r="A19" s="1">
         <v>12</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="9">
+        <v>121</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2001</v>
+      </c>
+      <c r="D19" s="9">
+        <v>300</v>
+      </c>
+      <c r="E19" s="9">
+        <v>200</v>
+      </c>
+      <c r="F19" s="9">
+        <v>100</v>
+      </c>
       <c r="G19" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>Nguyễn Việt Anh</v>
-      </c>
-      <c r="I19" s="1"/>
+        <f t="shared" si="1"/>
+        <v>Nguyễn Việt Anh</v>
+      </c>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="41.25" customHeight="1">
       <c r="A20" s="1">
         <v>13</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2001</v>
+      </c>
+      <c r="D20" s="9">
+        <v>100</v>
+      </c>
+      <c r="E20" s="9">
+        <v>200</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
       <c r="G20" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nguyễn Việt Anh</v>
       </c>
       <c r="I20" s="1"/>
@@ -1113,13 +1240,23 @@
       <c r="A21" s="1">
         <v>14</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>4000</v>
+      </c>
+      <c r="D21" s="9">
+        <v>100</v>
+      </c>
+      <c r="E21" s="9">
+        <v>200</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
       <c r="G21" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1131,13 +1268,23 @@
       <c r="A22" s="1">
         <v>15</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9">
+        <v>100</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>100</v>
+      </c>
       <c r="G22" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1149,13 +1296,23 @@
       <c r="A23" s="1">
         <v>16</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1999</v>
+      </c>
+      <c r="D23" s="9">
+        <v>100</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>100</v>
+      </c>
       <c r="G23" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H23" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1167,13 +1324,23 @@
       <c r="A24" s="1">
         <v>17</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="G24" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1185,13 +1352,23 @@
       <c r="A25" s="1">
         <v>18</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="9">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="G25" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H25" s="9" t="str">
         <f t="shared" si="0"/>
